--- a/Figures/Chapter 2 - Fire/pairwise_adonis_23_same_sheet.xlsx
+++ b/Figures/Chapter 2 - Fire/pairwise_adonis_23_same_sheet.xlsx
@@ -419,7 +419,7 @@
         <v>5.86354040679718</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="7">
@@ -484,7 +484,7 @@
         <v>5.01431344375347</v>
       </c>
       <c r="E12" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="13">
@@ -549,7 +549,7 @@
         <v>5.4812313092231</v>
       </c>
       <c r="E18" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="19">
